--- a/Projects/INBEVTRADMX/Data/inbevtradmx_template_5.xlsx
+++ b/Projects/INBEVTRADMX/Data/inbevtradmx_template_5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabel\Desktop\InbevMX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anabel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061A4524-10AA-4D03-AF7F-AD07120629F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC2621D-68B6-40FB-8140-9D88C5E3AA02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11925" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24720" windowHeight="11925" tabRatio="787" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="195">
   <si>
     <t>KPI Level 1 Name</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>COOLERS, CRAFT &amp; IMPORTS, ENERGIZANTE, LIGHT, PREMIUM, REGULAR, REGULAR/CLARA, REGULAR/OBSCURA, SIN ALCOHOL, VALUE</t>
+  </si>
+  <si>
+    <t>Categoria Tradicional</t>
   </si>
 </sst>
 </file>
@@ -1057,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMH50"/>
+  <dimension ref="A1:AMI50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,13 +1076,14 @@
     <col min="10" max="10" width="42.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="8.5703125" style="1"/>
-    <col min="20" max="20" width="55.140625" style="1"/>
-    <col min="21" max="1022" width="8.5703125" style="1"/>
-    <col min="1023" max="1024" width="8.5703125"/>
+    <col min="13" max="13" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="20" width="8.5703125" style="1"/>
+    <col min="21" max="21" width="55.140625" style="1"/>
+    <col min="22" max="1023" width="8.5703125" style="1"/>
+    <col min="1024" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1117,34 +1121,37 @@
         <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1180,35 +1187,38 @@
       <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="6">
+      <c r="M2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="6">
         <v>40</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>21</v>
       </c>
@@ -1236,35 +1246,38 @@
       <c r="L3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="5">
+      <c r="M3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="5">
         <v>15</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="S3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="V3" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>21</v>
       </c>
@@ -1296,35 +1309,38 @@
       <c r="L4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="5">
+      <c r="M4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5">
         <v>5</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="V4" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -1354,35 +1370,38 @@
       <c r="L5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N5" s="5">
+      <c r="O5" s="5">
         <v>5</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="Q5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="V5" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1410,35 +1429,38 @@
       <c r="L6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="5">
+      <c r="M6" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="5">
         <v>10</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="S6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="T6" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1470,35 +1492,38 @@
       <c r="L7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="5">
+      <c r="M7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="5">
         <v>10</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="P7" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="U7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="V7" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -1526,35 +1551,38 @@
       <c r="L8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="5">
+      <c r="M8" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="5">
         <v>2.5</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="S8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S8" s="7" t="s">
+      <c r="T8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="U8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U8" s="5" t="s">
+      <c r="V8" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>21</v>
       </c>
@@ -1582,35 +1610,38 @@
       <c r="L9" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="5">
+      <c r="M9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="5">
         <v>2.5</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="P9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="Q9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="R9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="S9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="T9" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="U9" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U9" s="5" t="s">
+      <c r="V9" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1638,35 +1669,38 @@
       <c r="L10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N10" s="5">
+      <c r="M10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="5">
         <v>0</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="R10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="S10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="T10" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T10" s="8" t="s">
+      <c r="U10" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="U10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -1696,35 +1730,38 @@
       <c r="L11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N11" s="5">
+      <c r="M11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O11" s="5">
         <v>10</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="R11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="S11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="T11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="U11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="U11" s="5" t="s">
+      <c r="V11" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>75</v>
       </c>
@@ -1754,35 +1791,38 @@
       <c r="L12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" s="5">
+      <c r="M12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" s="5">
         <v>50</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="T12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="V12" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -1810,35 +1850,38 @@
       <c r="L13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="M13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O13" s="5">
         <v>10</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="P13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="Q13" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="R13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="S13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="7" t="s">
+      <c r="T13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="U13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="5" t="s">
+      <c r="V13" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>75</v>
       </c>
@@ -1870,35 +1913,38 @@
       <c r="L14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N14" s="5">
+      <c r="M14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O14" s="5">
         <v>5</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="P14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="Q14" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="R14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="7" t="s">
+      <c r="S14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="U14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="V14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>75</v>
       </c>
@@ -1930,35 +1976,38 @@
       <c r="L15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="5">
+      <c r="M15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="5">
         <v>15</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="P15" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="Q15" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="R15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="7" t="s">
+      <c r="S15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T15" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="5" t="s">
+      <c r="V15" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>75</v>
       </c>
@@ -1986,35 +2035,38 @@
       <c r="L16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" s="5">
+      <c r="M16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="5">
         <v>5</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="P16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="R16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="S16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S16" s="7" t="s">
+      <c r="T16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="U16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="V16" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>75</v>
       </c>
@@ -2046,35 +2098,38 @@
       <c r="L17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" s="5">
+      <c r="M17" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="5">
         <v>15</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="P17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="Q17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="R17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="U17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="5" t="s">
+      <c r="V17" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>75</v>
       </c>
@@ -2102,35 +2157,38 @@
       <c r="L18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" s="5">
+      <c r="M18" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="5">
         <v>0</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="P18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="Q18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="R18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="S18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S18" s="7" t="s">
+      <c r="T18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="T18" s="8" t="s">
+      <c r="U18" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="V18" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>90</v>
       </c>
@@ -2161,33 +2219,36 @@
       <c r="L19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19" s="5">
+      <c r="M19" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="5">
         <v>10</v>
       </c>
-      <c r="O19" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P19" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="S19" s="7" t="s">
+      <c r="T19" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="U19" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="U19" s="5" t="s">
+      <c r="V19" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>90</v>
       </c>
@@ -2218,33 +2279,36 @@
       <c r="L20" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="5">
+      <c r="M20" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="5">
         <v>2</v>
       </c>
-      <c r="O20" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P20" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5" t="s">
+      <c r="Q20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S20" s="7" t="s">
+      <c r="T20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="T20" s="8" t="s">
+      <c r="U20" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U20" s="5" t="s">
+      <c r="V20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>90</v>
       </c>
@@ -2275,33 +2339,36 @@
       <c r="L21" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="M21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N21" s="5">
+      <c r="M21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O21" s="5">
         <v>2</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P21" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5" t="s">
+      <c r="Q21" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S21" s="7" t="s">
+      <c r="T21" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="U21" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="U21" s="5" t="s">
+      <c r="V21" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
@@ -2332,33 +2399,36 @@
       <c r="L22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N22" s="5">
+      <c r="M22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="5">
         <v>6</v>
       </c>
-      <c r="O22" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P22" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5" t="s">
+      <c r="Q22" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S22" s="7" t="s">
+      <c r="T22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="U22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U22" s="5" t="s">
+      <c r="V22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>90</v>
       </c>
@@ -2389,33 +2459,36 @@
       <c r="L23" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N23" s="5">
+      <c r="M23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O23" s="5">
         <v>2</v>
       </c>
-      <c r="O23" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P23" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5" t="s">
+      <c r="Q23" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="T23" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="T23" s="8" t="s">
+      <c r="U23" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U23" s="5" t="s">
+      <c r="V23" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>90</v>
       </c>
@@ -2446,33 +2519,36 @@
       <c r="L24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="5">
+      <c r="M24" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="5">
         <v>2</v>
       </c>
-      <c r="O24" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P24" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5" t="s">
+      <c r="Q24" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S24" s="7" t="s">
+      <c r="T24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="T24" s="8" t="s">
+      <c r="U24" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="U24" s="5" t="s">
+      <c r="V24" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>90</v>
       </c>
@@ -2503,33 +2579,36 @@
       <c r="L25" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N25" s="5">
+      <c r="M25" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O25" s="5">
         <v>6</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P25" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5" t="s">
+      <c r="Q25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="T25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="U25" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U25" s="5" t="s">
+      <c r="V25" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>90</v>
       </c>
@@ -2560,33 +2639,36 @@
       <c r="L26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="5">
+      <c r="M26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O26" s="5">
         <v>2</v>
       </c>
-      <c r="O26" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="T26" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="T26" s="8" t="s">
+      <c r="U26" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U26" s="5" t="s">
+      <c r="V26" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>90</v>
       </c>
@@ -2617,33 +2699,36 @@
       <c r="L27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" s="5">
+      <c r="M27" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O27" s="5">
         <v>2</v>
       </c>
-      <c r="O27" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P27" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5" t="s">
+      <c r="Q27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="T27" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="T27" s="8" t="s">
+      <c r="U27" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="U27" s="5" t="s">
+      <c r="V27" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>90</v>
       </c>
@@ -2674,33 +2759,36 @@
       <c r="L28" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N28" s="5">
+      <c r="M28" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="5">
         <v>6</v>
       </c>
-      <c r="O28" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P28" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5" t="s">
+      <c r="Q28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="T28" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="U28" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="U28" s="5" t="s">
+      <c r="V28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>90</v>
       </c>
@@ -2727,33 +2815,36 @@
       <c r="L29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="5">
+      <c r="M29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="5">
         <v>2</v>
       </c>
-      <c r="O29" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P29" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5" t="s">
+      <c r="Q29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="T29" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="T29" s="8" t="s">
+      <c r="U29" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U29" s="5" t="s">
+      <c r="V29" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>90</v>
       </c>
@@ -2784,33 +2875,36 @@
       <c r="L30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N30" s="5">
+      <c r="M30" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O30" s="5">
         <v>2</v>
       </c>
-      <c r="O30" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P30" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5" t="s">
+      <c r="Q30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="S30" s="7" t="s">
+      <c r="T30" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="T30" s="8" t="s">
+      <c r="U30" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="U30" s="5" t="s">
+      <c r="V30" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>90</v>
       </c>
@@ -2841,33 +2935,36 @@
       <c r="L31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="5">
+      <c r="M31" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O31" s="5">
         <v>6</v>
       </c>
-      <c r="O31" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5" t="s">
+      <c r="Q31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="T31" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="T31" s="8" t="s">
+      <c r="U31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="U31" s="5" t="s">
+      <c r="V31" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>90</v>
       </c>
@@ -2894,33 +2991,36 @@
       <c r="L32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="5">
+      <c r="M32" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O32" s="5">
         <v>1</v>
       </c>
-      <c r="O32" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P32" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5" t="s">
+      <c r="Q32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S32" s="7" t="s">
+      <c r="T32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="T32" s="8" t="s">
+      <c r="U32" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U32" s="5" t="s">
+      <c r="V32" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>90</v>
       </c>
@@ -2949,31 +3049,32 @@
         <v>122</v>
       </c>
       <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5">
+      <c r="M33" s="15"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5">
         <v>1</v>
       </c>
-      <c r="O33" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5" t="s">
+      <c r="Q33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="T33" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="T33" s="8" t="s">
+      <c r="U33" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="U33" s="5" t="s">
+      <c r="V33" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>90</v>
       </c>
@@ -3002,31 +3103,32 @@
         <v>122</v>
       </c>
       <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5">
+      <c r="M34" s="15"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5">
         <v>3</v>
       </c>
-      <c r="O34" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5" t="s">
+      <c r="Q34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="S34" s="7" t="s">
+      <c r="T34" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="T34" s="8" t="s">
+      <c r="U34" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="U34" s="5" t="s">
+      <c r="V34" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>90</v>
       </c>
@@ -3059,33 +3161,36 @@
       <c r="L35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N35" s="5">
+      <c r="M35" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O35" s="5">
         <v>10</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P35" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5" t="s">
+      <c r="Q35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="T35" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="T35" s="8" t="s">
+      <c r="U35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U35" s="5" t="s">
+      <c r="V35" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>90</v>
       </c>
@@ -3116,33 +3221,36 @@
       <c r="L36" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N36" s="5">
+      <c r="M36" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O36" s="5">
         <v>10</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P36" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5" t="s">
+      <c r="Q36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="T36" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="T36" s="8" t="s">
+      <c r="U36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U36" s="5" t="s">
+      <c r="V36" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>90</v>
       </c>
@@ -3173,33 +3281,36 @@
       <c r="L37" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N37" s="5">
+      <c r="M37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="5">
         <v>10</v>
       </c>
-      <c r="O37" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5" t="s">
+      <c r="Q37" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="T37" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="T37" s="8" t="s">
+      <c r="U37" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="U37" s="5" t="s">
+      <c r="V37" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>90</v>
       </c>
@@ -3232,33 +3343,36 @@
       <c r="L38" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N38" s="5">
+      <c r="M38" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O38" s="5">
         <v>5</v>
       </c>
-      <c r="O38" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P38" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5" t="s">
+      <c r="Q38" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="T38" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="T38" s="8" t="s">
+      <c r="U38" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="U38" s="5" t="s">
+      <c r="V38" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>90</v>
       </c>
@@ -3291,33 +3405,36 @@
       <c r="L39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N39" s="5">
+      <c r="M39" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O39" s="5">
         <v>5</v>
       </c>
-      <c r="O39" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P39" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5" t="s">
+      <c r="Q39" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="T39" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="T39" s="8" t="s">
+      <c r="U39" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="U39" s="5" t="s">
+      <c r="V39" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
@@ -3353,35 +3470,38 @@
       <c r="L40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="5">
+      <c r="M40" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="5">
         <v>62</v>
       </c>
-      <c r="O40" s="5" t="s">
+      <c r="P40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P40" s="5" t="s">
+      <c r="Q40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="5" t="s">
+      <c r="R40" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R40" s="5" t="s">
+      <c r="S40" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S40" s="7" t="s">
+      <c r="T40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="U40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U40" s="5" t="s">
+      <c r="V40" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>149</v>
       </c>
@@ -3411,35 +3531,38 @@
       <c r="L41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="N41" s="5">
+      <c r="O41" s="5">
         <v>8</v>
       </c>
-      <c r="O41" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="Q41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="5" t="s">
+      <c r="R41" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R41" s="5" t="s">
+      <c r="S41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="T41" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="U41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="U41" s="5" t="s">
+      <c r="V41" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>149</v>
       </c>
@@ -3471,35 +3594,38 @@
       <c r="L42" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N42" s="5">
+      <c r="M42" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O42" s="5">
         <v>15</v>
       </c>
-      <c r="O42" s="5" t="s">
+      <c r="P42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P42" s="5" t="s">
+      <c r="Q42" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="5" t="s">
+      <c r="R42" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R42" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S42" s="7" t="s">
+      <c r="S42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T42" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="U42" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U42" s="5" t="s">
+      <c r="V42" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>149</v>
       </c>
@@ -3529,35 +3655,38 @@
       <c r="L43" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="5">
+      <c r="M43" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O43" s="5">
         <v>15</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="P43" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P43" s="5" t="s">
+      <c r="Q43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="R43" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R43" s="5" t="s">
+      <c r="S43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="T43" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="T43" s="8" t="s">
+      <c r="U43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="U43" s="5" t="s">
+      <c r="V43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>151</v>
       </c>
@@ -3587,35 +3716,38 @@
       <c r="L44" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M44" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="5">
+      <c r="M44" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O44" s="5">
         <v>58</v>
       </c>
-      <c r="O44" s="5" t="s">
+      <c r="P44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="Q44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q44" s="5" t="s">
+      <c r="R44" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R44" s="5" t="s">
+      <c r="S44" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="S44" s="7" t="s">
+      <c r="T44" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="U44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="U44" s="5" t="s">
+      <c r="V44" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>151</v>
       </c>
@@ -3647,35 +3779,38 @@
       <c r="L45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N45" s="5">
+      <c r="M45" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="5">
         <v>6</v>
       </c>
-      <c r="O45" s="5" t="s">
+      <c r="P45" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P45" s="5" t="s">
+      <c r="Q45" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q45" s="5" t="s">
+      <c r="R45" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S45" s="7" t="s">
+      <c r="S45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T45" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="T45" s="5" t="s">
+      <c r="U45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U45" s="5" t="s">
+      <c r="V45" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>151</v>
       </c>
@@ -3707,35 +3842,38 @@
       <c r="L46" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N46" s="5">
+      <c r="M46" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="5">
         <v>18</v>
       </c>
-      <c r="O46" s="5" t="s">
+      <c r="P46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P46" s="5" t="s">
+      <c r="Q46" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q46" s="5" t="s">
+      <c r="R46" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R46" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S46" s="7" t="s">
+      <c r="S46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T46" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="U46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U46" s="5" t="s">
+      <c r="V46" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>151</v>
       </c>
@@ -3767,35 +3905,38 @@
       <c r="L47" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N47" s="5">
+      <c r="M47" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="5">
         <v>18</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="P47" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="Q47" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="Q47" s="5" t="s">
+      <c r="R47" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="R47" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S47" s="7" t="s">
+      <c r="S47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T47" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="U47" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U47" s="5" t="s">
+      <c r="V47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>90</v>
       </c>
@@ -3828,33 +3969,36 @@
       <c r="L48" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="5">
+      <c r="M48" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O48" s="5">
         <v>5</v>
       </c>
-      <c r="O48" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="P48" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5" t="s">
+      <c r="Q48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="S48" s="5" t="s">
+      <c r="T48" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="T48" s="8" t="s">
+      <c r="U48" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="U48" s="5" t="s">
+      <c r="V48" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>156</v>
       </c>
@@ -3883,35 +4027,38 @@
       <c r="L49" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="N49" s="11">
+      <c r="M49" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O49" s="11">
         <v>50</v>
       </c>
-      <c r="O49" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="P49" s="11" t="s">
         <v>94</v>
       </c>
       <c r="Q49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R49" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="S49" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S49" s="11" t="s">
+      <c r="T49" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="T49" s="13" t="s">
+      <c r="U49" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="U49" s="11" t="s">
+      <c r="V49" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>156</v>
       </c>
@@ -3940,31 +4087,34 @@
       <c r="L50" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N50" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="N50" s="11">
+      <c r="O50" s="11">
         <v>50</v>
       </c>
-      <c r="O50" s="11" t="s">
-        <v>94</v>
-      </c>
       <c r="P50" s="11" t="s">
         <v>94</v>
       </c>
       <c r="Q50" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="R50" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="S50" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S50" s="11" t="s">
+      <c r="T50" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="U50" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="U50" s="11" t="s">
+      <c r="V50" s="11" t="s">
         <v>32</v>
       </c>
     </row>
